--- a/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF2E23E-9B55-4E32-83C3-AF6C5A360EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FA56F6-6B75-483E-BAB2-687E84FAB4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6F4C22FB-2B3C-4945-885F-1C8851D17D6A}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BF26147F-A76D-4353-B64C-617CEEA6B3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,84 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
@@ -94,15 +157,6 @@
     <t>98,91%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -118,37 +172,25 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -172,48 +214,6 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -253,6 +253,54 @@
     <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>99,7%</t>
   </si>
   <si>
@@ -283,34 +331,22 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>98,64%</t>
@@ -337,42 +373,6 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>99,74%</t>
   </si>
   <si>
@@ -406,34 +406,58 @@
     <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -446,30 +470,6 @@
   </si>
   <si>
     <t>2,28%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -879,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863910DD-136B-4A4E-8198-1A9DF6E57FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B23624-BC29-402F-8B0E-85DAD623993E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -997,10 +997,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,85 +1012,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>193899</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>632</v>
-      </c>
-      <c r="N4" s="7">
-        <v>406041</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1264</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1264</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1099,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1114,10 +1114,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1129,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1158,10 +1158,10 @@
         <v>126960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1188,10 +1188,10 @@
         <v>242962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1200,7 +1200,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1209,13 +1209,13 @@
         <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1239,13 +1239,13 @@
         <v>673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1301,103 +1301,103 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>310</v>
+      </c>
+      <c r="I10" s="7">
+        <v>193899</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>632</v>
+      </c>
+      <c r="N10" s="7">
+        <v>406041</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>580</v>
-      </c>
-      <c r="N10" s="7">
-        <v>417139</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1264</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1264</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>43</v>
@@ -1409,10 +1409,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1424,10 +1424,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1439,10 +1439,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1462,10 +1462,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -1477,10 +1477,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -1492,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
@@ -1510,19 +1510,19 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>48</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>49</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>50</v>
@@ -1564,10 +1564,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1579,10 +1579,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1594,10 +1594,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1617,10 +1617,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -1632,10 +1632,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -1647,10 +1647,10 @@
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
@@ -1665,19 +1665,19 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>55</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>56</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>57</v>
@@ -1719,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1734,10 +1734,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1749,10 +1749,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1796,7 +1796,7 @@
         <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -1820,7 +1820,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>65</v>
@@ -1847,10 +1847,10 @@
         <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1937,7 +1937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DD913-9789-49D9-AA71-02EF74A7C1F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6590BEE-6D0A-4134-9715-34F557BC6E81}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2055,100 +2055,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221310</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>316</v>
-      </c>
-      <c r="I4" s="7">
-        <v>204713</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>54</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47828</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>636</v>
-      </c>
-      <c r="N4" s="7">
-        <v>426023</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>668</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>685</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1353</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,10 +2157,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2172,10 +2172,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2187,10 +2187,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2216,10 +2216,10 @@
         <v>126956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2231,10 +2231,10 @@
         <v>113357</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2246,10 +2246,10 @@
         <v>240313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2258,7 +2258,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2267,13 +2267,13 @@
         <v>687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2282,13 +2282,13 @@
         <v>661</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2297,13 +2297,13 @@
         <v>1348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,52 +2359,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D10" s="7">
-        <v>206458</v>
+        <v>221310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>316</v>
+      </c>
+      <c r="I10" s="7">
+        <v>204713</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>636</v>
+      </c>
+      <c r="N10" s="7">
+        <v>426023</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209569</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>554</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416028</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2413,52 +2413,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>731</v>
+        <v>685</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,10 +2467,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2482,10 +2482,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2497,10 +2497,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2520,46 +2520,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>241</v>
+      </c>
+      <c r="I13" s="7">
+        <v>154839</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>496</v>
+      </c>
+      <c r="N13" s="7">
+        <v>320824</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47828</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2568,52 +2568,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,10 +2622,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2637,10 +2637,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2652,10 +2652,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2675,97 +2675,97 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>206458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209569</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>241</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>554</v>
+      </c>
+      <c r="N16" s="7">
+        <v>416028</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>496</v>
-      </c>
-      <c r="N16" s="7">
-        <v>320824</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>731</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>110</v>
@@ -2777,10 +2777,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2792,10 +2792,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2807,10 +2807,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2866,10 +2866,10 @@
         <v>1451015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>58</v>
@@ -2878,7 +2878,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -2917,13 +2917,13 @@
         <v>4055</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC96666-1E15-4807-9267-4E323D7429AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3CD5B2-1991-4827-8353-3236A2E7E403}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3113,46 +3113,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3161,22 +3161,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3185,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3200,13 +3200,13 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3230,10 +3230,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3245,10 +3245,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3277,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3289,10 +3289,10 @@
         <v>110409</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3304,10 +3304,10 @@
         <v>232911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3316,22 +3316,22 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3340,13 +3340,13 @@
         <v>771</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3355,13 +3355,13 @@
         <v>771</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,106 +3417,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D10" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>206118</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>666</v>
       </c>
       <c r="N10" s="7">
-        <v>411854</v>
+        <v>431606</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1302</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,10 +3525,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3540,10 +3540,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3555,10 +3555,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3578,10 +3578,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
@@ -3593,10 +3593,10 @@
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
@@ -3608,16 +3608,16 @@
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3626,19 +3626,19 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>138</v>
@@ -3650,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>139</v>
@@ -3665,13 +3665,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,10 +3680,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3695,10 +3695,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3710,10 +3710,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3733,10 +3733,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -3748,85 +3748,85 @@
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>206118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>411854</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>143</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,10 +3835,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3850,10 +3850,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3865,10 +3865,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3936,19 +3936,19 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>147</v>

--- a/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FA56F6-6B75-483E-BAB2-687E84FAB4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{033999FF-8E34-4ACF-BFBE-220F555370E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{BF26147F-A76D-4353-B64C-617CEEA6B3D8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5E41BF0-3590-41C8-A4FB-BBA63431A0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="155">
   <si>
     <t>Menores según si padecen sordera o problemas de audición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -121,60 +136,54 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,05%</t>
+    <t>97,88%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
@@ -184,18 +193,18 @@
     <t>99,58%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -205,13 +214,25 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>99,91%</t>
@@ -223,271 +244,265 @@
     <t>99,81%</t>
   </si>
   <si>
+    <t>99,38%</t>
+  </si>
+  <si>
     <t>99,86%</t>
   </si>
   <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>99,57%</t>
   </si>
 </sst>
 </file>
@@ -498,7 +513,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -594,39 +609,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -678,7 +693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -789,13 +804,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -804,6 +812,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -868,19 +883,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B23624-BC29-402F-8B0E-85DAD623993E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B35F1D-5B3E-48E7-BB31-FC6C1C525703}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,34 +1047,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1048,10 +1083,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1063,34 +1098,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1105,13 +1140,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1120,13 +1155,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1135,13 +1170,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1152,49 +1187,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126960</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242962</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1203,49 +1238,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>126960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>673</v>
+        <v>242962</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,13 +1295,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1275,13 +1310,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1290,13 +1325,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,49 +1342,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>212142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>193899</v>
+        <v>1264</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>406041</v>
+        <v>1264</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,49 +1393,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>212142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="I11" s="7">
-        <v>1264</v>
+        <v>193899</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>1264</v>
+        <v>406041</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,13 +1450,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1430,13 +1465,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1445,13 +1480,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,49 +1497,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>149657</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>287474</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,49 +1548,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>149657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>287474</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,13 +1605,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1585,13 +1620,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1600,13 +1635,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,49 +1652,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207824</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>417139</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,49 +1703,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207824</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>417139</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,13 +1760,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1740,13 +1775,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1755,13 +1790,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,49 +1807,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1085</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>722027</v>
+        <v>673</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>679757</v>
+        <v>1264</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="M19" s="7">
-        <v>2101</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1401784</v>
+        <v>1937</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,49 +1858,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>1085</v>
       </c>
       <c r="D20" s="7">
-        <v>673</v>
+        <v>722027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1016</v>
       </c>
       <c r="I20" s="7">
-        <v>1264</v>
+        <v>679757</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2101</v>
       </c>
       <c r="N20" s="7">
-        <v>1937</v>
+        <v>1401784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1915,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1895,13 +1930,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1910,13 +1945,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1937,8 +1977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6590BEE-6D0A-4134-9715-34F557BC6E81}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC88F01-3F54-479C-8520-365FF6F2F359}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1954,7 +1994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2055,49 +2095,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>47828</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,49 +2146,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>47828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2203,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2178,13 +2218,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2193,13 +2233,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,49 +2250,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126956</v>
+        <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>113357</v>
+        <v>661</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="M7" s="7">
-        <v>338</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>240313</v>
+        <v>1348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,49 +2301,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>687</v>
+        <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>661</v>
+        <v>113357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>338</v>
       </c>
       <c r="N8" s="7">
-        <v>1348</v>
+        <v>240313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2358,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2333,13 +2373,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2348,13 +2388,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,49 +2405,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>221310</v>
+        <v>668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>204713</v>
+        <v>685</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>636</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>426023</v>
+        <v>1353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,49 +2456,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>668</v>
+        <v>221309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>685</v>
+        <v>204713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="N11" s="7">
-        <v>1353</v>
+        <v>426023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,16 +2510,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2488,13 +2528,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2503,13 +2543,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,49 +2560,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>320824</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2611,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>320824</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2668,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2643,13 +2683,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2658,13 +2698,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,49 +2715,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>206458</v>
+        <v>624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>209569</v>
+        <v>731</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>416028</v>
+        <v>1354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,49 +2766,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D17" s="7">
-        <v>624</v>
+        <v>206458</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>731</v>
+        <v>209569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>554</v>
       </c>
       <c r="N17" s="7">
-        <v>1354</v>
+        <v>416028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2823,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2798,13 +2838,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2813,13 +2853,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,49 +2870,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1063</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>746163</v>
+        <v>1979</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="H19" s="7">
-        <v>1015</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>704852</v>
+        <v>2076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
-        <v>2078</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>1451015</v>
+        <v>4055</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,49 +2921,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1063</v>
       </c>
       <c r="D20" s="7">
-        <v>1979</v>
+        <v>746163</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="I20" s="7">
-        <v>2076</v>
+        <v>704852</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>2078</v>
       </c>
       <c r="N20" s="7">
-        <v>4055</v>
+        <v>1451015</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2978,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2953,13 +2993,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -2968,13 +3008,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2995,8 +3040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3CD5B2-1991-4827-8353-3236A2E7E403}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C0E0FD-D0F0-4F3C-877C-EA161250B9EE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3012,7 +3057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3113,49 +3158,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,49 +3209,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3266,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3236,13 +3281,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3251,13 +3296,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,49 +3313,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>110409</v>
+        <v>771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>232911</v>
+        <v>771</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,49 +3364,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>771</v>
+        <v>110409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="N8" s="7">
-        <v>771</v>
+        <v>232911</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3421,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3391,13 +3436,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3406,13 +3451,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>224359</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>431606</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,49 +3519,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>224359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3576,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3546,13 +3591,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3561,13 +3606,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,49 +3674,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>322670</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3731,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3701,13 +3746,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3716,13 +3761,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>205736</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H16" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>206118</v>
+        <v>1302</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
-        <v>569</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>411854</v>
+        <v>1302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,49 +3829,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>205736</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="I17" s="7">
-        <v>1302</v>
+        <v>206118</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>569</v>
       </c>
       <c r="N17" s="7">
-        <v>1302</v>
+        <v>411854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3886,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3856,13 +3901,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3871,13 +3916,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,49 +3933,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>744844</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
-        <v>1058</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>702297</v>
+        <v>2074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
-        <v>2123</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1447141</v>
+        <v>2074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,49 +3984,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>744844</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1058</v>
       </c>
       <c r="I20" s="7">
-        <v>2074</v>
+        <v>702297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2123</v>
       </c>
       <c r="N20" s="7">
-        <v>2074</v>
+        <v>1447141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4041,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4011,13 +4056,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4026,13 +4071,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{033999FF-8E34-4ACF-BFBE-220F555370E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67350D7-7073-4215-A5DE-7B13106BADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5E41BF0-3590-41C8-A4FB-BBA63431A0B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D1AE121-1189-4A3F-A998-9D24A8A8618F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="143">
   <si>
     <t>Menores según si padecen sordera o problemas de audición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -127,7 +127,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -139,7 +139,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -148,13 +148,13 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>2,27%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,01%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>99,41%</t>
@@ -163,16 +163,16 @@
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,88%</t>
+    <t>97,73%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -217,169 +217,145 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -388,31 +364,31 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,29%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>0,57%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
+    <t>99,29%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -433,10 +409,10 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -445,16 +421,10 @@
     <t>99,31%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -478,31 +448,25 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
     <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
   </si>
 </sst>
 </file>
@@ -914,7 +878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B35F1D-5B3E-48E7-BB31-FC6C1C525703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6088C7-5C9D-4049-82BF-42C00EC2ECF9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1834,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1843,13 +1807,13 @@
         <v>1937</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,10 +1828,10 @@
         <v>722027</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -1879,10 +1843,10 @@
         <v>679757</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -1894,13 +1858,13 @@
         <v>1401784</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,7 +1920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC88F01-3F54-479C-8520-365FF6F2F359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CF932-78C1-4091-9247-0A382F0CED09}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1994,7 +1958,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2107,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2122,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2137,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2170,7 +2134,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2185,7 +2149,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2256,13 +2220,13 @@
         <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2271,13 +2235,13 @@
         <v>661</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2286,13 +2250,13 @@
         <v>1348</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,10 +2271,10 @@
         <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2322,10 +2286,10 @@
         <v>113357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2337,10 +2301,10 @@
         <v>240313</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2411,13 +2375,13 @@
         <v>668</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2432,7 +2396,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2441,13 +2405,13 @@
         <v>1353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2423,13 @@
         <v>320</v>
       </c>
       <c r="D11" s="7">
-        <v>221309</v>
+        <v>221310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2480,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2492,10 +2456,10 @@
         <v>426023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2510,7 +2474,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2572,7 +2536,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2587,7 +2551,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2602,7 +2566,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2584,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2635,7 +2599,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2650,7 +2614,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2721,13 +2685,13 @@
         <v>624</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2736,13 +2700,13 @@
         <v>731</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2751,13 +2715,13 @@
         <v>1354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,10 +2736,10 @@
         <v>206458</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2787,10 +2751,10 @@
         <v>209569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2802,10 +2766,10 @@
         <v>416028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2876,13 +2840,13 @@
         <v>1979</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2891,13 +2855,13 @@
         <v>2076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2912,7 +2876,7 @@
         <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2891,13 @@
         <v>746163</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>1015</v>
@@ -2942,13 +2906,13 @@
         <v>704852</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>2078</v>
@@ -2960,10 +2924,10 @@
         <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +2983,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C0E0FD-D0F0-4F3C-877C-EA161250B9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0D2D08-30D1-4357-BC44-10F78378EEE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3057,7 +3021,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3170,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3185,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3200,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,7 +3182,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3233,7 +3197,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3248,7 +3212,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3325,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3334,13 +3298,13 @@
         <v>771</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3355,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,7 +3337,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3385,10 +3349,10 @@
         <v>110409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3403,7 +3367,7 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3480,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3495,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3510,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3492,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3543,7 +3507,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3558,7 +3522,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3635,7 +3599,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3650,7 +3614,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3665,7 +3629,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3647,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3698,7 +3662,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3713,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3790,7 +3754,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3805,7 +3769,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3814,13 +3778,13 @@
         <v>1302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3802,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3853,7 +3817,7 @@
         <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -3865,10 +3829,10 @@
         <v>411854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3945,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -3954,13 +3918,13 @@
         <v>2074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3969,13 +3933,13 @@
         <v>2074</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,7 +3957,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4005,13 +3969,13 @@
         <v>702297</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>2123</v>
@@ -4020,13 +3984,13 @@
         <v>1447141</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,7 +4046,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1013-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E67350D7-7073-4215-A5DE-7B13106BADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55150EF0-D490-4A88-837D-90E779439479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D1AE121-1189-4A3F-A998-9D24A8A8618F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{090D943F-DC58-4516-BA06-21955DEC7FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="136">
   <si>
     <t>Menores según si padecen sordera o problemas de audición en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,379 +100,352 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>Menores según si padecen sordera o problemas de audición en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>Menores según si padecen sordera o problemas de audición en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>97,72%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
     <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
 </sst>
 </file>
@@ -878,8 +857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6088C7-5C9D-4049-82BF-42C00EC2ECF9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88179FEF-B4F5-4274-B2AC-81CB2F22156E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1011,82 +990,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1098,72 +1077,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>1264</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1178,73 +1157,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>1264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="D8" s="7">
-        <v>126960</v>
+        <v>193899</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>366</v>
+        <v>632</v>
       </c>
       <c r="N8" s="7">
-        <v>242962</v>
+        <v>406041</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,54 +1232,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1318,88 +1297,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>193899</v>
+        <v>149657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>461</v>
       </c>
       <c r="N11" s="7">
-        <v>406041</v>
+        <v>287474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,49 +1387,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,52 +1488,52 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,153 +1542,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1264</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>673</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1937</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>306</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207824</v>
+        <v>679757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1085</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>722027</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>580</v>
+        <v>2101</v>
       </c>
       <c r="N17" s="7">
-        <v>417139</v>
+        <v>1401784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,217 +1697,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>673</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1264</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1937</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1085</v>
-      </c>
-      <c r="D20" s="7">
-        <v>722027</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679757</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2101</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1401784</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1941,8 +1764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498CF932-78C1-4091-9247-0A382F0CED09}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6CB181-42A0-45E5-94FC-DD7E8FE4EE21}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1958,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2059,97 +1882,97 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135730</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>152411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>392</v>
       </c>
       <c r="N5" s="7">
-        <v>47828</v>
+        <v>288141</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2161,54 +1984,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2217,97 +2040,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>126956</v>
+        <v>204713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="I8" s="7">
-        <v>113357</v>
+        <v>221309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>338</v>
+        <v>636</v>
       </c>
       <c r="N8" s="7">
-        <v>240313</v>
+        <v>426023</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,153 +2139,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>685</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1353</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>320</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221310</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>255</v>
+      </c>
+      <c r="I11" s="7">
+        <v>165985</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
+        <v>496</v>
+      </c>
+      <c r="N11" s="7">
+        <v>320824</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="7">
-        <v>316</v>
-      </c>
-      <c r="I11" s="7">
-        <v>204713</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="7">
-        <v>636</v>
-      </c>
-      <c r="N11" s="7">
-        <v>426023</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,49 +2294,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,97 +2347,97 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>624</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1354</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>209569</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>280</v>
+      </c>
+      <c r="I14" s="7">
+        <v>206458</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>241</v>
-      </c>
-      <c r="I14" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>554</v>
+      </c>
+      <c r="N14" s="7">
+        <v>416028</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="7">
-        <v>496</v>
-      </c>
-      <c r="N14" s="7">
-        <v>320824</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2626,153 +2449,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>624</v>
+        <v>2076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>731</v>
+        <v>1979</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>1354</v>
+        <v>4055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>280</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>206458</v>
+        <v>704852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1063</v>
       </c>
       <c r="I17" s="7">
-        <v>209569</v>
+        <v>746163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>554</v>
+        <v>2078</v>
       </c>
       <c r="N17" s="7">
-        <v>416028</v>
+        <v>1451015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,217 +2604,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1979</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2076</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4055</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D20" s="7">
-        <v>746163</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704852</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2078</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1451015</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3004,8 +2671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0D2D08-30D1-4357-BC44-10F78378EEE0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A1950D-0040-444E-A945-0925DFFDF0F2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3021,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3122,19 +2789,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3149,70 +2816,70 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>132936</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>195</v>
+      </c>
+      <c r="I5" s="7">
+        <v>148076</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>381</v>
+      </c>
+      <c r="N5" s="7">
+        <v>281012</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>54</v>
-      </c>
-      <c r="N5" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3224,54 +2891,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3289,88 +2956,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="I8" s="7">
-        <v>110409</v>
+        <v>224359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>327</v>
+        <v>666</v>
       </c>
       <c r="N8" s="7">
-        <v>232911</v>
+        <v>431606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,54 +3046,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3444,7 +3111,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3459,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3474,58 +3141,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,49 +3201,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,19 +3254,19 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3614,70 +3281,70 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>206118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>411854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3689,153 +3356,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1302</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>1302</v>
+        <v>2074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>1058</v>
       </c>
       <c r="D17" s="7">
-        <v>205736</v>
+        <v>702297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>279</v>
+        <v>1065</v>
       </c>
       <c r="I17" s="7">
-        <v>206118</v>
+        <v>744844</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>569</v>
+        <v>2123</v>
       </c>
       <c r="N17" s="7">
-        <v>411854</v>
+        <v>1447141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,217 +3511,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2074</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2074</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D20" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I20" s="7">
-        <v>702297</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1447141</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>70</v>
+      <c r="A19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
